--- a/тест-кейс_001.xlsx
+++ b/тест-кейс_001.xlsx
@@ -169,9 +169,6 @@
     <t>1. Ввести логин: User-1 в поле ввода логина, нажать кнопку "Ввести пароль"</t>
   </si>
   <si>
-    <t>2. Ввести пароль: Pass-1 в поле ввода пароля, нажать кнопку "Войти"</t>
-  </si>
-  <si>
     <t>4. Загружается главная страница сайта, в левом верхнем углу приветствие User-1</t>
   </si>
   <si>
@@ -260,6 +257,9 @@
   </si>
   <si>
     <t>3. В строке ниже поля ввода пароля при введении сиволов появляется подсказка "Смените раскладку", шрифт красного цвета</t>
+  </si>
+  <si>
+    <t>2. Ввести пароль: Pass_1 в поле ввода пароля, нажать кнопку "Войти"</t>
   </si>
 </sst>
 </file>
@@ -709,7 +709,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -770,10 +770,10 @@
         <v>28</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="33.75" customHeight="1">
@@ -787,13 +787,13 @@
         <v>8</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="47.25">
@@ -807,13 +807,13 @@
         <v>19</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="33.75" customHeight="1">
@@ -823,13 +823,13 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" ht="33.75" customHeight="1">
@@ -837,7 +837,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>25</v>
@@ -849,13 +849,13 @@
         <v>7</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="H6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="47.25">
@@ -870,10 +870,10 @@
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" ht="33.75" customHeight="1">
@@ -895,25 +895,25 @@
         <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" ht="47.25">
@@ -928,10 +928,10 @@
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" ht="33.75" customHeight="1">
@@ -953,25 +953,25 @@
         <v>13</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="47.25">
@@ -986,10 +986,10 @@
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" ht="33.75" customHeight="1">
@@ -1011,7 +1011,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>25</v>
@@ -1026,10 +1026,10 @@
         <v>28</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" ht="33.75" customHeight="1">
@@ -1043,13 +1043,13 @@
         <v>8</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="H16" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1" ht="33.75" customHeight="1">
@@ -1064,10 +1064,10 @@
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" ht="31.5">
@@ -1075,7 +1075,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>25</v>
@@ -1090,10 +1090,10 @@
         <v>28</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1" ht="33.75" customHeight="1">
@@ -1107,13 +1107,13 @@
         <v>8</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" ht="47.25">
@@ -1130,10 +1130,10 @@
         <v>20</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1" ht="63">
@@ -1141,13 +1141,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>7</v>
@@ -1156,10 +1156,10 @@
         <v>28</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" ht="47.25">
@@ -1173,7 +1173,7 @@
         <v>8</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>21</v>
@@ -1194,10 +1194,10 @@
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/тест-кейс_001.xlsx
+++ b/тест-кейс_001.xlsx
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>Требование</t>
-  </si>
-  <si>
-    <t>REQ-1</t>
   </si>
   <si>
     <t>Фактический результат</t>
@@ -260,6 +257,9 @@
   </si>
   <si>
     <t>2. Ввести пароль: Pass_1 в поле ввода пароля, нажать кнопку "Войти"</t>
+  </si>
+  <si>
+    <t>REQ-1.1</t>
   </si>
 </sst>
 </file>
@@ -709,7 +709,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -747,7 +747,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="33.75" customHeight="1">
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>6</v>
@@ -767,53 +767,53 @@
         <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="33.75" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="47.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="33.75" customHeight="1">
@@ -823,13 +823,13 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" ht="33.75" customHeight="1">
@@ -837,10 +837,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>11</v>
@@ -849,20 +849,20 @@
         <v>7</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="H6" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="47.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
@@ -870,17 +870,17 @@
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" ht="33.75" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="6" t="s">
@@ -895,32 +895,32 @@
         <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" ht="47.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
@@ -928,17 +928,17 @@
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" ht="33.75" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
@@ -953,32 +953,32 @@
         <v>13</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="47.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
@@ -986,17 +986,17 @@
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" ht="33.75" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
@@ -1011,10 +1011,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>14</v>
@@ -1023,40 +1023,40 @@
         <v>7</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" ht="33.75" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="H16" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1" ht="33.75" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="6" t="s">
@@ -1064,10 +1064,10 @@
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" ht="31.5">
@@ -1075,10 +1075,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>16</v>
@@ -1087,40 +1087,40 @@
         <v>7</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1" ht="33.75" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" ht="47.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
@@ -1130,10 +1130,10 @@
         <v>20</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1" ht="63">
@@ -1141,39 +1141,39 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" ht="47.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>21</v>
@@ -1186,7 +1186,7 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
@@ -1194,10 +1194,10 @@
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/тест-кейс_001.xlsx
+++ b/тест-кейс_001.xlsx
@@ -266,7 +266,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +300,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -310,31 +318,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -377,7 +370,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -390,21 +383,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Контрольная ячейка" xfId="1" builtinId="23"/>
+    <cellStyle name="Акцент1" xfId="1" builtinId="29"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -709,7 +702,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
